--- a/UNET/Colours.xlsx
+++ b/UNET/Colours.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Git_Projects\Biospec_Analysis\UNET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8F24AD-555E-4D64-9257-9D67C9AA0674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F402A06B-F678-43F7-91D2-41379611022B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{11ECE0AA-3BFD-4A86-A534-628795033993}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" xr2:uid="{11ECE0AA-3BFD-4A86-A534-628795033993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Tissue</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Paraffin</t>
+  </si>
+  <si>
+    <t>Lymphoid</t>
+  </si>
+  <si>
+    <t>967ad6</t>
+  </si>
+  <si>
+    <t>faff00</t>
   </si>
 </sst>
 </file>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7FDBC2-79BB-4E44-8EB9-F69361D856B9}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +735,40 @@
         <v>138</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>122</v>
+      </c>
+      <c r="E16">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
